--- a/5.9 & 5.10.xlsx
+++ b/5.9 & 5.10.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20392"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53280BB-C9E0-4BB9-B3AD-ED9B80D02B09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5.9 Birnchen1" sheetId="1" r:id="rId1"/>
     <sheet name="5.10 Birnchen2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -53,8 +54,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +66,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -91,13 +99,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -148,31 +159,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="B2:D7" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="B2:D7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="B2:D7" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B2:D7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Messung / Dateiname" dataDxfId="9"/>
-    <tableColumn id="2" name="R_V,D" dataDxfId="8"/>
-    <tableColumn id="3" name="R_V_S" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Messung / Dateiname" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="R_V,D" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="R_V_S" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle13" displayName="Tabelle13" ref="B2:D7" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="B2:D7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle13" displayName="Tabelle13" ref="B2:D7" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="B2:D7" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Messung / Dateiname" dataDxfId="2"/>
-    <tableColumn id="2" name="R_V,D" dataDxfId="1"/>
-    <tableColumn id="3" name="R_V_S" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Messung / Dateiname" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="R_V,D" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="R_V_S" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -247,6 +258,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -282,6 +310,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -457,11 +502,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -491,33 +536,51 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="3">
+        <v>2.3507500000000001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="3">
+        <v>2.3507500000000001</v>
+      </c>
+      <c r="D5" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="C6" s="3">
+        <v>2.3507500000000001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>40</v>
+      </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="C7" s="1">
+        <f>AVERAGE(C4:C6)</f>
+        <v>2.3507500000000001</v>
+      </c>
+      <c r="D7" s="1">
+        <f>AVERAGE(D4:D6)</f>
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -529,11 +592,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -563,38 +626,57 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="3">
+        <v>2.7913749999999999</v>
+      </c>
+      <c r="D4" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="3">
+        <v>2.7913749999999999</v>
+      </c>
+      <c r="D5" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="C6" s="3">
+        <v>2.7913749999999999</v>
+      </c>
+      <c r="D6" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="C7" s="1">
+        <f>AVERAGE(C4:C6)</f>
+        <v>2.7913749999999999</v>
+      </c>
+      <c r="D7" s="1">
+        <f>AVERAGE(D4:D6)</f>
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>